--- a/biology/Botanique/Bomba_toledana/Bomba_toledana.xlsx
+++ b/biology/Botanique/Bomba_toledana/Bomba_toledana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La bomba toledana (« bombe tolédane ») est un mets typique de la gastronomie castillane de la province de Tolède. Elle est constituée d'une boule de purée de pomme de terre, farcie de viande hachée, préparée en ragoût (carcamusa), qui est ensuite roulée dans la chapelure avant d'être frite.
